--- a/reports/air_raw_data/price_weigth.xlsx
+++ b/reports/air_raw_data/price_weigth.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>13237.8</v>
+        <v>13265</v>
       </c>
     </row>
     <row r="3">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>62538</v>
+        <v>68603</v>
       </c>
     </row>
     <row r="4">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>46362.5</v>
+        <v>46450</v>
       </c>
     </row>
     <row r="6">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>43297.095</v>
+        <v>47243</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1150.9</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="8">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3541.5</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="9">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>83219.5</v>
+        <v>107215</v>
       </c>
     </row>
     <row r="10">
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>21971</v>
+        <v>22352</v>
       </c>
     </row>
     <row r="39">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>69687</v>
+        <v>78171</v>
       </c>
     </row>
     <row r="40">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>27090.9</v>
+        <v>27147</v>
       </c>
     </row>
     <row r="42">
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>42534.75</v>
+        <v>44644</v>
       </c>
     </row>
     <row r="43">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>269.6</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>806</v>
+        <v>978</v>
       </c>
     </row>
     <row r="45">
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>63535.15</v>
+        <v>72210</v>
       </c>
     </row>
     <row r="46">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>62852.89999999999</v>
+        <v>67416</v>
       </c>
     </row>
     <row r="75">
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>74951</v>
+        <v>91595</v>
       </c>
     </row>
     <row r="76">
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>18870.45</v>
+        <v>18871</v>
       </c>
     </row>
     <row r="78">
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>74988</v>
+        <v>76990</v>
       </c>
     </row>
     <row r="79">
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>241.4</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80">
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>788.5</v>
+        <v>789</v>
       </c>
     </row>
     <row r="81">
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>41246</v>
+        <v>51478</v>
       </c>
     </row>
     <row r="82">
@@ -3509,7 +3509,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>52389.10000000001</v>
+        <v>53146</v>
       </c>
     </row>
     <row r="111">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>105279.8</v>
+        <v>116739</v>
       </c>
     </row>
     <row r="112">
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>39514.84</v>
+        <v>39820</v>
       </c>
     </row>
     <row r="114">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>78630.10000000001</v>
+        <v>81861</v>
       </c>
     </row>
     <row r="115">
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>472.3</v>
+        <v>474</v>
       </c>
     </row>
     <row r="117">
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>24301</v>
+        <v>26089</v>
       </c>
     </row>
     <row r="118">
@@ -4517,7 +4517,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>29030.282</v>
+        <v>29904</v>
       </c>
     </row>
     <row r="147">
@@ -4545,7 +4545,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>71142</v>
+        <v>76253</v>
       </c>
     </row>
     <row r="148">
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>37695.2</v>
+        <v>37770</v>
       </c>
     </row>
     <row r="150">
@@ -4629,7 +4629,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>47568.2</v>
+        <v>51295</v>
       </c>
     </row>
     <row r="151">
@@ -4685,7 +4685,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2435.5</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="153">
@@ -4713,7 +4713,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>31068</v>
+        <v>36154</v>
       </c>
     </row>
     <row r="154">
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>19477</v>
+        <v>19482</v>
       </c>
     </row>
     <row r="183">
@@ -5553,7 +5553,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>125494.22</v>
+        <v>132241</v>
       </c>
     </row>
     <row r="184">
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>34350.6</v>
+        <v>34608</v>
       </c>
     </row>
     <row r="186">
@@ -5637,7 +5637,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>72985.64</v>
+        <v>75742</v>
       </c>
     </row>
     <row r="187">
@@ -5693,7 +5693,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1003.75</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="189">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>24095</v>
+        <v>26733</v>
       </c>
     </row>
     <row r="190">
@@ -6533,7 +6533,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>26996.904</v>
+        <v>27019</v>
       </c>
     </row>
     <row r="219">
@@ -6561,7 +6561,7 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>75796</v>
+        <v>81813</v>
       </c>
     </row>
     <row r="220">
@@ -6617,7 +6617,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>29057.24</v>
+        <v>29066</v>
       </c>
     </row>
     <row r="222">
@@ -6645,7 +6645,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>32579.2</v>
+        <v>34845</v>
       </c>
     </row>
     <row r="223">
@@ -6729,7 +6729,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>52295.2</v>
+        <v>60876</v>
       </c>
     </row>
     <row r="226">
@@ -6897,7 +6897,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="232">
@@ -7541,7 +7541,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>36052.9</v>
+        <v>36056</v>
       </c>
     </row>
     <row r="255">
@@ -7569,7 +7569,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>134850</v>
+        <v>151546</v>
       </c>
     </row>
     <row r="256">
@@ -7625,7 +7625,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>37120.87</v>
+        <v>37803</v>
       </c>
     </row>
     <row r="258">
@@ -7653,7 +7653,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>48600.25</v>
+        <v>51500</v>
       </c>
     </row>
     <row r="259">
@@ -7737,7 +7737,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>24563</v>
+        <v>27214</v>
       </c>
     </row>
     <row r="262">
@@ -8549,7 +8549,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>21738.5</v>
+        <v>21861</v>
       </c>
     </row>
     <row r="291">
@@ -8577,7 +8577,7 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>170210.7</v>
+        <v>187793</v>
       </c>
     </row>
     <row r="292">
@@ -8633,7 +8633,7 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>11606.6</v>
+        <v>11752</v>
       </c>
     </row>
     <row r="294">
@@ -8661,7 +8661,7 @@
         </is>
       </c>
       <c r="F294" t="n">
-        <v>65765</v>
+        <v>70571</v>
       </c>
     </row>
     <row r="295">
@@ -8745,7 +8745,7 @@
         </is>
       </c>
       <c r="F297" t="n">
-        <v>49849</v>
+        <v>60780</v>
       </c>
     </row>
     <row r="298">
@@ -9557,7 +9557,7 @@
         </is>
       </c>
       <c r="F326" t="n">
-        <v>60008.12500000001</v>
+        <v>60106</v>
       </c>
     </row>
     <row r="327">
@@ -9585,7 +9585,7 @@
         </is>
       </c>
       <c r="F327" t="n">
-        <v>160788</v>
+        <v>184230</v>
       </c>
     </row>
     <row r="328">
@@ -9641,7 +9641,7 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>20656.5</v>
+        <v>25207</v>
       </c>
     </row>
     <row r="330">
@@ -9669,7 +9669,7 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>37913</v>
+        <v>40867</v>
       </c>
     </row>
     <row r="331">
@@ -9753,7 +9753,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>32822</v>
+        <v>35915</v>
       </c>
     </row>
     <row r="334">
@@ -10425,7 +10425,7 @@
         </is>
       </c>
       <c r="F357" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358">
@@ -10565,7 +10565,7 @@
         </is>
       </c>
       <c r="F362" t="n">
-        <v>52576.69</v>
+        <v>57095</v>
       </c>
     </row>
     <row r="363">
@@ -10593,7 +10593,7 @@
         </is>
       </c>
       <c r="F363" t="n">
-        <v>104316</v>
+        <v>113211</v>
       </c>
     </row>
     <row r="364">
@@ -10649,7 +10649,7 @@
         </is>
       </c>
       <c r="F365" t="n">
-        <v>13746.4</v>
+        <v>51255</v>
       </c>
     </row>
     <row r="366">
@@ -10677,7 +10677,7 @@
         </is>
       </c>
       <c r="F366" t="n">
-        <v>64756.5</v>
+        <v>68654</v>
       </c>
     </row>
     <row r="367">
@@ -10761,7 +10761,7 @@
         </is>
       </c>
       <c r="F369" t="n">
-        <v>226426</v>
+        <v>227049</v>
       </c>
     </row>
     <row r="370">
@@ -11573,7 +11573,7 @@
         </is>
       </c>
       <c r="F398" t="n">
-        <v>42369.35999999999</v>
+        <v>43108</v>
       </c>
     </row>
     <row r="399">
@@ -11601,7 +11601,7 @@
         </is>
       </c>
       <c r="F399" t="n">
-        <v>67999.86</v>
+        <v>74848</v>
       </c>
     </row>
     <row r="400">
@@ -11657,7 +11657,7 @@
         </is>
       </c>
       <c r="F401" t="n">
-        <v>30042.22</v>
+        <v>30407</v>
       </c>
     </row>
     <row r="402">
@@ -11685,7 +11685,7 @@
         </is>
       </c>
       <c r="F402" t="n">
-        <v>82216</v>
+        <v>84594</v>
       </c>
     </row>
     <row r="403">
@@ -11741,7 +11741,7 @@
         </is>
       </c>
       <c r="F404" t="n">
-        <v>2824.55</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="405">
@@ -11769,7 +11769,7 @@
         </is>
       </c>
       <c r="F405" t="n">
-        <v>28823</v>
+        <v>30978</v>
       </c>
     </row>
     <row r="406">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="F414" t="n">
-        <v>210</v>
+        <v>241</v>
       </c>
     </row>
     <row r="415">
@@ -12581,7 +12581,7 @@
         </is>
       </c>
       <c r="F434" t="n">
-        <v>41302.35</v>
+        <v>42191</v>
       </c>
     </row>
     <row r="435">
@@ -12609,7 +12609,7 @@
         </is>
       </c>
       <c r="F435" t="n">
-        <v>72632</v>
+        <v>79514</v>
       </c>
     </row>
     <row r="436">
@@ -12665,7 +12665,7 @@
         </is>
       </c>
       <c r="F437" t="n">
-        <v>15332.75</v>
+        <v>15804</v>
       </c>
     </row>
     <row r="438">
@@ -12693,7 +12693,7 @@
         </is>
       </c>
       <c r="F438" t="n">
-        <v>38934.9</v>
+        <v>42340</v>
       </c>
     </row>
     <row r="439">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="F439" t="n">
-        <v>9104</v>
+        <v>9109</v>
       </c>
     </row>
     <row r="440">
@@ -12777,7 +12777,7 @@
         </is>
       </c>
       <c r="F441" t="n">
-        <v>16074.26</v>
+        <v>17473</v>
       </c>
     </row>
     <row r="442">
@@ -13589,7 +13589,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>38858.3</v>
+        <v>39224</v>
       </c>
     </row>
     <row r="471">
@@ -13617,7 +13617,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>73873</v>
+        <v>82902</v>
       </c>
     </row>
     <row r="472">
@@ -13673,7 +13673,7 @@
         </is>
       </c>
       <c r="F473" t="n">
-        <v>22509.7</v>
+        <v>22619</v>
       </c>
     </row>
     <row r="474">
@@ -13701,7 +13701,7 @@
         </is>
       </c>
       <c r="F474" t="n">
-        <v>32369.5</v>
+        <v>34710</v>
       </c>
     </row>
     <row r="475">
@@ -13729,7 +13729,7 @@
         </is>
       </c>
       <c r="F475" t="n">
-        <v>14013</v>
+        <v>14399</v>
       </c>
     </row>
     <row r="476">
@@ -13785,7 +13785,7 @@
         </is>
       </c>
       <c r="F477" t="n">
-        <v>17915</v>
+        <v>23554</v>
       </c>
     </row>
     <row r="478">
@@ -14597,7 +14597,7 @@
         </is>
       </c>
       <c r="F506" t="n">
-        <v>81524.10000000001</v>
+        <v>82123</v>
       </c>
     </row>
     <row r="507">
@@ -14625,7 +14625,7 @@
         </is>
       </c>
       <c r="F507" t="n">
-        <v>103876.5</v>
+        <v>113948</v>
       </c>
     </row>
     <row r="508">
@@ -14681,7 +14681,7 @@
         </is>
       </c>
       <c r="F509" t="n">
-        <v>37850.26</v>
+        <v>38198</v>
       </c>
     </row>
     <row r="510">
@@ -14709,7 +14709,7 @@
         </is>
       </c>
       <c r="F510" t="n">
-        <v>78161</v>
+        <v>80652</v>
       </c>
     </row>
     <row r="511">
@@ -14737,7 +14737,7 @@
         </is>
       </c>
       <c r="F511" t="n">
-        <v>6236.4</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="512">
@@ -14793,7 +14793,7 @@
         </is>
       </c>
       <c r="F513" t="n">
-        <v>26706</v>
+        <v>29792</v>
       </c>
     </row>
     <row r="514">
@@ -15465,7 +15465,7 @@
         </is>
       </c>
       <c r="F537" t="n">
-        <v>738</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="538">
@@ -15605,7 +15605,7 @@
         </is>
       </c>
       <c r="F542" t="n">
-        <v>46710.49000000001</v>
+        <v>47324</v>
       </c>
     </row>
     <row r="543">
@@ -15633,7 +15633,7 @@
         </is>
       </c>
       <c r="F543" t="n">
-        <v>92910.26000000001</v>
+        <v>106673</v>
       </c>
     </row>
     <row r="544">
@@ -15689,7 +15689,7 @@
         </is>
       </c>
       <c r="F545" t="n">
-        <v>60832.68000000001</v>
+        <v>62008</v>
       </c>
     </row>
     <row r="546">
@@ -15717,7 +15717,7 @@
         </is>
       </c>
       <c r="F546" t="n">
-        <v>46634</v>
+        <v>48690</v>
       </c>
     </row>
     <row r="547">
@@ -15745,7 +15745,7 @@
         </is>
       </c>
       <c r="F547" t="n">
-        <v>2058.5</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="548">
@@ -15773,7 +15773,7 @@
         </is>
       </c>
       <c r="F548" t="n">
-        <v>3594.4</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="549">
@@ -15801,7 +15801,7 @@
         </is>
       </c>
       <c r="F549" t="n">
-        <v>13575</v>
+        <v>17551</v>
       </c>
     </row>
     <row r="550">
@@ -16613,7 +16613,7 @@
         </is>
       </c>
       <c r="F578" t="n">
-        <v>62294.23</v>
+        <v>62895</v>
       </c>
     </row>
     <row r="579">
@@ -16641,7 +16641,7 @@
         </is>
       </c>
       <c r="F579" t="n">
-        <v>69757.69</v>
+        <v>78151</v>
       </c>
     </row>
     <row r="580">
@@ -16697,7 +16697,7 @@
         </is>
       </c>
       <c r="F581" t="n">
-        <v>70955.90000000001</v>
+        <v>71592</v>
       </c>
     </row>
     <row r="582">
@@ -16725,7 +16725,7 @@
         </is>
       </c>
       <c r="F582" t="n">
-        <v>78446</v>
+        <v>83063</v>
       </c>
     </row>
     <row r="583">
@@ -16753,7 +16753,7 @@
         </is>
       </c>
       <c r="F583" t="n">
-        <v>3465</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="584">
@@ -16781,7 +16781,7 @@
         </is>
       </c>
       <c r="F584" t="n">
-        <v>3461.8</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="585">
@@ -16809,7 +16809,7 @@
         </is>
       </c>
       <c r="F585" t="n">
-        <v>74373.98</v>
+        <v>77359</v>
       </c>
     </row>
     <row r="586">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="F614" t="n">
-        <v>45857.78000000001</v>
+        <v>45860</v>
       </c>
     </row>
     <row r="615">
@@ -17649,7 +17649,7 @@
         </is>
       </c>
       <c r="F615" t="n">
-        <v>80992.78</v>
+        <v>89233</v>
       </c>
     </row>
     <row r="616">
@@ -17705,7 +17705,7 @@
         </is>
       </c>
       <c r="F617" t="n">
-        <v>28180.19000000001</v>
+        <v>28848</v>
       </c>
     </row>
     <row r="618">
@@ -17733,7 +17733,7 @@
         </is>
       </c>
       <c r="F618" t="n">
-        <v>57771.12</v>
+        <v>62145</v>
       </c>
     </row>
     <row r="619">
@@ -17761,7 +17761,7 @@
         </is>
       </c>
       <c r="F619" t="n">
-        <v>3750.1</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="620">
@@ -17817,7 +17817,7 @@
         </is>
       </c>
       <c r="F621" t="n">
-        <v>52497</v>
+        <v>55714</v>
       </c>
     </row>
     <row r="622">
@@ -18629,7 +18629,7 @@
         </is>
       </c>
       <c r="F650" t="n">
-        <v>64617.46</v>
+        <v>65736</v>
       </c>
     </row>
     <row r="651">
@@ -18657,7 +18657,7 @@
         </is>
       </c>
       <c r="F651" t="n">
-        <v>76572.09000000001</v>
+        <v>87471</v>
       </c>
     </row>
     <row r="652">
@@ -18713,7 +18713,7 @@
         </is>
       </c>
       <c r="F653" t="n">
-        <v>20288.64</v>
+        <v>21574</v>
       </c>
     </row>
     <row r="654">
@@ -18741,7 +18741,7 @@
         </is>
       </c>
       <c r="F654" t="n">
-        <v>38869</v>
+        <v>41356</v>
       </c>
     </row>
     <row r="655">
@@ -18769,7 +18769,7 @@
         </is>
       </c>
       <c r="F655" t="n">
-        <v>13899.4</v>
+        <v>14062</v>
       </c>
     </row>
     <row r="656">
@@ -18797,7 +18797,7 @@
         </is>
       </c>
       <c r="F656" t="n">
-        <v>14725.4</v>
+        <v>14725</v>
       </c>
     </row>
     <row r="657">
@@ -18825,7 +18825,7 @@
         </is>
       </c>
       <c r="F657" t="n">
-        <v>31014.7</v>
+        <v>35756</v>
       </c>
     </row>
     <row r="658">
@@ -19637,7 +19637,7 @@
         </is>
       </c>
       <c r="F686" t="n">
-        <v>56147.74</v>
+        <v>56188</v>
       </c>
     </row>
     <row r="687">
@@ -19665,7 +19665,7 @@
         </is>
       </c>
       <c r="F687" t="n">
-        <v>99576.47</v>
+        <v>108697</v>
       </c>
     </row>
     <row r="688">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="F689" t="n">
-        <v>65901.39999999999</v>
+        <v>66866</v>
       </c>
     </row>
     <row r="690">
@@ -19749,7 +19749,7 @@
         </is>
       </c>
       <c r="F690" t="n">
-        <v>100548.4</v>
+        <v>104024</v>
       </c>
     </row>
     <row r="691">
@@ -19777,7 +19777,7 @@
         </is>
       </c>
       <c r="F691" t="n">
-        <v>5715.16</v>
+        <v>6469</v>
       </c>
     </row>
     <row r="692">
@@ -19805,7 +19805,7 @@
         </is>
       </c>
       <c r="F692" t="n">
-        <v>3691.44</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="693">
@@ -19833,7 +19833,7 @@
         </is>
       </c>
       <c r="F693" t="n">
-        <v>25293</v>
+        <v>25891</v>
       </c>
     </row>
     <row r="694">
@@ -20505,7 +20505,7 @@
         </is>
       </c>
       <c r="F717" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718">
@@ -20645,7 +20645,7 @@
         </is>
       </c>
       <c r="F722" t="n">
-        <v>68500.75</v>
+        <v>68565</v>
       </c>
     </row>
     <row r="723">
@@ -20673,7 +20673,7 @@
         </is>
       </c>
       <c r="F723" t="n">
-        <v>96627</v>
+        <v>105167</v>
       </c>
     </row>
     <row r="724">
@@ -20729,7 +20729,7 @@
         </is>
       </c>
       <c r="F725" t="n">
-        <v>25363.74</v>
+        <v>25687</v>
       </c>
     </row>
     <row r="726">
@@ -20757,7 +20757,7 @@
         </is>
       </c>
       <c r="F726" t="n">
-        <v>29319.62</v>
+        <v>31038</v>
       </c>
     </row>
     <row r="727">
@@ -20785,7 +20785,7 @@
         </is>
       </c>
       <c r="F727" t="n">
-        <v>7748.4</v>
+        <v>7864</v>
       </c>
     </row>
     <row r="728">
@@ -20813,7 +20813,7 @@
         </is>
       </c>
       <c r="F728" t="n">
-        <v>7806.1</v>
+        <v>7806</v>
       </c>
     </row>
     <row r="729">
@@ -20841,7 +20841,7 @@
         </is>
       </c>
       <c r="F729" t="n">
-        <v>12902.98</v>
+        <v>13160</v>
       </c>
     </row>
     <row r="730">
@@ -21653,7 +21653,7 @@
         </is>
       </c>
       <c r="F758" t="n">
-        <v>57081.89999999999</v>
+        <v>57408</v>
       </c>
     </row>
     <row r="759">
@@ -21681,7 +21681,7 @@
         </is>
       </c>
       <c r="F759" t="n">
-        <v>134632.95</v>
+        <v>160421</v>
       </c>
     </row>
     <row r="760">
@@ -21737,7 +21737,7 @@
         </is>
       </c>
       <c r="F761" t="n">
-        <v>32318.3</v>
+        <v>37071</v>
       </c>
     </row>
     <row r="762">
@@ -21765,7 +21765,7 @@
         </is>
       </c>
       <c r="F762" t="n">
-        <v>35240.6</v>
+        <v>38528</v>
       </c>
     </row>
     <row r="763">
@@ -21793,7 +21793,7 @@
         </is>
       </c>
       <c r="F763" t="n">
-        <v>5953.299999999999</v>
+        <v>5954</v>
       </c>
     </row>
     <row r="764">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="F764" t="n">
-        <v>8217.200000000001</v>
+        <v>8217</v>
       </c>
     </row>
     <row r="765">
@@ -21849,7 +21849,7 @@
         </is>
       </c>
       <c r="F765" t="n">
-        <v>16038.5</v>
+        <v>16899</v>
       </c>
     </row>
     <row r="766">
@@ -22661,7 +22661,7 @@
         </is>
       </c>
       <c r="F794" t="n">
-        <v>50021.15</v>
+        <v>50807</v>
       </c>
     </row>
     <row r="795">
@@ -22689,7 +22689,7 @@
         </is>
       </c>
       <c r="F795" t="n">
-        <v>123771</v>
+        <v>137140</v>
       </c>
     </row>
     <row r="796">
@@ -22745,7 +22745,7 @@
         </is>
       </c>
       <c r="F797" t="n">
-        <v>25624.5</v>
+        <v>28010</v>
       </c>
     </row>
     <row r="798">
@@ -22773,7 +22773,7 @@
         </is>
       </c>
       <c r="F798" t="n">
-        <v>43636.76</v>
+        <v>46277</v>
       </c>
     </row>
     <row r="799">
@@ -22801,7 +22801,7 @@
         </is>
       </c>
       <c r="F799" t="n">
-        <v>1221.9</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="800">
@@ -22857,7 +22857,7 @@
         </is>
       </c>
       <c r="F801" t="n">
-        <v>24086</v>
+        <v>26089</v>
       </c>
     </row>
     <row r="802">
@@ -23669,7 +23669,7 @@
         </is>
       </c>
       <c r="F830" t="n">
-        <v>60113.31999999999</v>
+        <v>61061</v>
       </c>
     </row>
     <row r="831">
@@ -23697,7 +23697,7 @@
         </is>
       </c>
       <c r="F831" t="n">
-        <v>72995</v>
+        <v>82307</v>
       </c>
     </row>
     <row r="832">
@@ -23753,7 +23753,7 @@
         </is>
       </c>
       <c r="F833" t="n">
-        <v>22754.6</v>
+        <v>26203</v>
       </c>
     </row>
     <row r="834">
@@ -23781,7 +23781,7 @@
         </is>
       </c>
       <c r="F834" t="n">
-        <v>44529.9</v>
+        <v>47314</v>
       </c>
     </row>
     <row r="835">
@@ -23809,7 +23809,7 @@
         </is>
       </c>
       <c r="F835" t="n">
-        <v>2626.7</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="836">
@@ -23837,7 +23837,7 @@
         </is>
       </c>
       <c r="F836" t="n">
-        <v>7814.4</v>
+        <v>7942</v>
       </c>
     </row>
     <row r="837">
@@ -23865,7 +23865,7 @@
         </is>
       </c>
       <c r="F837" t="n">
-        <v>33233.2</v>
+        <v>34746</v>
       </c>
     </row>
     <row r="838">
@@ -24537,7 +24537,7 @@
         </is>
       </c>
       <c r="F861" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="862">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="F866" t="n">
-        <v>45771.00000000001</v>
+        <v>46516</v>
       </c>
     </row>
     <row r="867">
@@ -24705,7 +24705,7 @@
         </is>
       </c>
       <c r="F867" t="n">
-        <v>131400</v>
+        <v>145429</v>
       </c>
     </row>
     <row r="868">
@@ -24761,7 +24761,7 @@
         </is>
       </c>
       <c r="F869" t="n">
-        <v>67030.8</v>
+        <v>70692</v>
       </c>
     </row>
     <row r="870">
@@ -24789,7 +24789,7 @@
         </is>
       </c>
       <c r="F870" t="n">
-        <v>36935</v>
+        <v>38553</v>
       </c>
     </row>
     <row r="871">
@@ -24817,7 +24817,7 @@
         </is>
       </c>
       <c r="F871" t="n">
-        <v>40213.5</v>
+        <v>40403</v>
       </c>
     </row>
     <row r="872">
@@ -24845,7 +24845,7 @@
         </is>
       </c>
       <c r="F872" t="n">
-        <v>11331.5</v>
+        <v>11332</v>
       </c>
     </row>
     <row r="873">
@@ -24873,7 +24873,7 @@
         </is>
       </c>
       <c r="F873" t="n">
-        <v>7722</v>
+        <v>9125</v>
       </c>
     </row>
     <row r="874">
@@ -25125,7 +25125,7 @@
         </is>
       </c>
       <c r="F882" t="n">
-        <v>1720</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="883">
@@ -25685,7 +25685,7 @@
         </is>
       </c>
       <c r="F902" t="n">
-        <v>52238.96000000001</v>
+        <v>53718</v>
       </c>
     </row>
     <row r="903">
@@ -25713,7 +25713,7 @@
         </is>
       </c>
       <c r="F903" t="n">
-        <v>131622</v>
+        <v>145956</v>
       </c>
     </row>
     <row r="904">
@@ -25769,7 +25769,7 @@
         </is>
       </c>
       <c r="F905" t="n">
-        <v>53932.8</v>
+        <v>54101</v>
       </c>
     </row>
     <row r="906">
@@ -25797,7 +25797,7 @@
         </is>
       </c>
       <c r="F906" t="n">
-        <v>25397.6</v>
+        <v>28695</v>
       </c>
     </row>
     <row r="907">
@@ -25825,7 +25825,7 @@
         </is>
       </c>
       <c r="F907" t="n">
-        <v>961</v>
+        <v>975</v>
       </c>
     </row>
     <row r="908">
@@ -25853,7 +25853,7 @@
         </is>
       </c>
       <c r="F908" t="n">
-        <v>5752.5</v>
+        <v>5753</v>
       </c>
     </row>
     <row r="909">
@@ -25881,7 +25881,7 @@
         </is>
       </c>
       <c r="F909" t="n">
-        <v>23686.08</v>
+        <v>25610</v>
       </c>
     </row>
     <row r="910">
@@ -26133,7 +26133,7 @@
         </is>
       </c>
       <c r="F918" t="n">
-        <v>1760</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="919">
@@ -26693,7 +26693,7 @@
         </is>
       </c>
       <c r="F938" t="n">
-        <v>98286.51000000001</v>
+        <v>98646</v>
       </c>
     </row>
     <row r="939">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="F939" t="n">
-        <v>138690.35</v>
+        <v>158476</v>
       </c>
     </row>
     <row r="940">
@@ -26777,7 +26777,7 @@
         </is>
       </c>
       <c r="F941" t="n">
-        <v>60566.96</v>
+        <v>61037</v>
       </c>
     </row>
     <row r="942">
@@ -26805,7 +26805,7 @@
         </is>
       </c>
       <c r="F942" t="n">
-        <v>49880.02</v>
+        <v>52896</v>
       </c>
     </row>
     <row r="943">
@@ -26833,7 +26833,7 @@
         </is>
       </c>
       <c r="F943" t="n">
-        <v>699</v>
+        <v>765</v>
       </c>
     </row>
     <row r="944">
@@ -26861,7 +26861,7 @@
         </is>
       </c>
       <c r="F944" t="n">
-        <v>5485</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="945">
@@ -26889,7 +26889,7 @@
         </is>
       </c>
       <c r="F945" t="n">
-        <v>24512</v>
+        <v>27486</v>
       </c>
     </row>
     <row r="946">
@@ -27365,7 +27365,7 @@
         </is>
       </c>
       <c r="F962" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963">
